--- a/data/raw/erm_hd.xlsx
+++ b/data/raw/erm_hd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\airta drafts\SKRIPSI BISSMILLAH 2026 KTW\DRAFT PROPOSAL\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6297ED-F28E-4314-B4C9-8FA777232F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578253E6-F802-440B-81AB-B463C1E8FF74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2595" yWindow="2595" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3081,8 +3081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N831"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C718" zoomScale="105" workbookViewId="0">
-      <selection activeCell="G727" sqref="G727"/>
+    <sheetView tabSelected="1" topLeftCell="E131" zoomScale="105" workbookViewId="0">
+      <selection activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24777,7 +24777,7 @@
         <v>191</v>
       </c>
       <c r="I529" t="s">
-        <v>21</v>
+        <v>505</v>
       </c>
       <c r="J529" t="s">
         <v>302</v>
@@ -25834,7 +25834,7 @@
         <v>104</v>
       </c>
       <c r="F555" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="G555" t="s">
         <v>401</v>
